--- a/Testing/Wire Speed Test/Deg to Turn Measurements.xlsx
+++ b/Testing/Wire Speed Test/Deg to Turn Measurements.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -634,7 +634,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -698,14 +698,14 @@
         <v>666660</v>
       </c>
       <c r="I2" s="13">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="K2" s="14">
         <v>22222</v>
       </c>
       <c r="L2" s="9">
         <f>K2*I2</f>
-        <v>5222170</v>
+        <v>4222180</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -729,7 +729,7 @@
         <v>22222</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G14" si="1">F3*D3</f>
+        <f t="shared" ref="G3:G13" si="1">F3*D3</f>
         <v>666660</v>
       </c>
     </row>
@@ -997,14 +997,14 @@
         <v>235</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" ref="E14" si="2">D14/(C14-B14)</f>
+        <f>D14/(C14-B14)</f>
         <v>39.166666666666664</v>
       </c>
       <c r="F14" s="5">
         <v>22222</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" ref="G14" si="3">F14*D14</f>
+        <f>F14*D14</f>
         <v>5222170</v>
       </c>
     </row>
@@ -1019,7 +1019,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
